--- a/data/dividends_info_20260122.xlsx
+++ b/data/dividends_info_20260122.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>19.79999923706055</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>3.787878933834458</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
         <v>102</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>24.23999977111816</v>
+        <v>24.64500045776367</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3712871322186832</v>
+        <v>0.3651856292485813</v>
       </c>
       <c r="J3" t="n">
         <v>60</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>55.70000076293945</v>
+        <v>56.95000076293945</v>
       </c>
       <c r="I4" t="n">
-        <v>1.166965872705129</v>
+        <v>1.141352047923046</v>
       </c>
       <c r="J4" t="n">
         <v>32</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.830000042915344</v>
+        <v>1.769999980926514</v>
       </c>
       <c r="I5" t="n">
-        <v>3.278688447701616</v>
+        <v>3.389830545003326</v>
       </c>
       <c r="J5" t="n">
         <v>18</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.2409999966621399</v>
+        <v>0.2489999979734421</v>
       </c>
       <c r="I6" t="n">
-        <v>24.8962659049803</v>
+        <v>24.09638573828402</v>
       </c>
       <c r="J6" t="n">
         <v>11</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.838000297546387</v>
+        <v>9.032999992370605</v>
       </c>
       <c r="I7" t="n">
-        <v>2.602398645130763</v>
+        <v>2.546219419841261</v>
       </c>
       <c r="J7" t="n">
         <v>-3</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.630000114440918</v>
+        <v>5.685999870300293</v>
       </c>
       <c r="I8" t="n">
-        <v>2.145648268996455</v>
+        <v>2.124516404422996</v>
       </c>
       <c r="J8" t="n">
         <v>-3</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>25.25</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="I9" t="n">
-        <v>2.851485148514851</v>
+        <v>2.874251584546105</v>
       </c>
       <c r="J9" t="n">
         <v>-13</v>
@@ -2294,100 +2294,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>EL.EN. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EXPERT.AI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>STMicroelectronics N.V.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>eVISO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>